--- a/src/Magicodes.ExporterAndImporter.Tests/TestFiles/Import/学生基础数据及缴费流水号导入.xlsx
+++ b/src/Magicodes.ExporterAndImporter.Tests/TestFiles/Import/学生基础数据及缴费流水号导入.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitRepository\Magicodes.IE\src\Magicodes.ExporterAndImporter.Tests\TestFiles\Import\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Coding\dotnetcore.github\Magicodes.IE\src\Magicodes.ExporterAndImporter.Tests\TestFiles\Import\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FEDCEDA-3E34-46BA-922C-62AC03040008}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1班导入数据" sheetId="1" r:id="rId1"/>
@@ -638,8 +639,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -685,7 +686,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -819,9 +820,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 10" xfId="1"/>
-    <cellStyle name="常规 5 2" xfId="2"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 10" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="常规 5 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="5">
     <dxf>
@@ -1168,14 +1169,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.28515625" style="1" customWidth="1"/>
@@ -1196,7 +1197,7 @@
     <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1246,7 +1247,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1282,7 +1283,7 @@
       </c>
       <c r="P2" s="4"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1318,7 +1319,7 @@
       </c>
       <c r="P3" s="4"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1354,7 +1355,7 @@
       </c>
       <c r="P4" s="4"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -1390,7 +1391,7 @@
       </c>
       <c r="P5" s="4"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -1426,7 +1427,7 @@
       </c>
       <c r="P6" s="4"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -1462,7 +1463,7 @@
       </c>
       <c r="P7" s="4"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -1498,7 +1499,7 @@
       </c>
       <c r="P8" s="4"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -1534,7 +1535,7 @@
       </c>
       <c r="P9" s="4"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -1570,7 +1571,7 @@
       </c>
       <c r="P10" s="4"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -1606,7 +1607,7 @@
       </c>
       <c r="P11" s="4"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -1642,7 +1643,7 @@
       </c>
       <c r="P12" s="4"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -1678,7 +1679,7 @@
       </c>
       <c r="P13" s="4"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -1714,7 +1715,7 @@
       </c>
       <c r="P14" s="4"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -1750,7 +1751,7 @@
       </c>
       <c r="P15" s="4"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -1786,7 +1787,7 @@
       </c>
       <c r="P16" s="4"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -1825,16 +1826,16 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" sqref="E18:E1048576">
+    <dataValidation type="list" sqref="E18:E1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"男,女"</formula1>
     </dataValidation>
-    <dataValidation type="list" sqref="O18:O1048576">
+    <dataValidation type="list" sqref="O18:O1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"正常,流水,休学,勤工俭学,顶岗实习,毕业,参军"</formula1>
     </dataValidation>
-    <dataValidation type="list" sqref="O2:O17">
+    <dataValidation type="list" sqref="O2:O17" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"正常,PupilsAway,休学,勤工俭学,顶岗实习,毕业,参军"</formula1>
     </dataValidation>
-    <dataValidation type="list" sqref="E2:E17">
+    <dataValidation type="list" sqref="E2:E17" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"男,女,Man,Female"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1843,16 +1844,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G21"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="6" max="6" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="30">
       <c r="A1" s="2" t="s">
         <v>115</v>
       </c>
@@ -1875,7 +1880,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="105">
       <c r="A2" s="18" t="s">
         <v>121</v>
       </c>
@@ -1896,7 +1901,7 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="150">
       <c r="A3" s="18" t="s">
         <v>125</v>
       </c>
@@ -1917,7 +1922,7 @@
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="90">
       <c r="A4" s="18" t="s">
         <v>128</v>
       </c>
@@ -1938,7 +1943,7 @@
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="150">
       <c r="A5" s="18" t="s">
         <v>131</v>
       </c>
@@ -1959,7 +1964,7 @@
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="90">
       <c r="A6" s="18" t="s">
         <v>134</v>
       </c>
@@ -1980,7 +1985,7 @@
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="135">
       <c r="A7" s="19" t="s">
         <v>137</v>
       </c>
@@ -2001,7 +2006,7 @@
       </c>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="135">
       <c r="A8" s="19" t="s">
         <v>140</v>
       </c>
@@ -2022,7 +2027,7 @@
       </c>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="150">
       <c r="A9" s="19" t="s">
         <v>143</v>
       </c>
@@ -2043,7 +2048,7 @@
       </c>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="150">
       <c r="A10" s="19" t="s">
         <v>146</v>
       </c>
@@ -2064,7 +2069,7 @@
       </c>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="105">
       <c r="A11" s="19" t="s">
         <v>150</v>
       </c>
@@ -2085,7 +2090,7 @@
       </c>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12" s="19" t="s">
         <v>153</v>
       </c>
@@ -2106,7 +2111,7 @@
       </c>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="135">
       <c r="A13" s="19" t="s">
         <v>156</v>
       </c>
@@ -2127,7 +2132,7 @@
       </c>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="150">
       <c r="A14" s="19" t="s">
         <v>159</v>
       </c>
@@ -2148,7 +2153,7 @@
       </c>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="A15" s="19" t="s">
         <v>162</v>
       </c>
@@ -2169,7 +2174,7 @@
       </c>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="90">
       <c r="A16" s="19" t="s">
         <v>165</v>
       </c>
@@ -2190,7 +2195,7 @@
       </c>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="90">
       <c r="A17" s="19" t="s">
         <v>168</v>
       </c>
@@ -2211,7 +2216,7 @@
       </c>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="135">
       <c r="A18" s="19" t="s">
         <v>172</v>
       </c>
@@ -2232,7 +2237,7 @@
       </c>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="90">
       <c r="A19" s="19" t="s">
         <v>175</v>
       </c>
@@ -2253,7 +2258,7 @@
       </c>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="150">
       <c r="A20" s="19" t="s">
         <v>178</v>
       </c>
@@ -2274,7 +2279,7 @@
       </c>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="135">
       <c r="A21" s="19" t="s">
         <v>181</v>
       </c>
